--- a/Result.xlsx
+++ b/Result.xlsx
@@ -730,16 +730,16 @@
         <v>10</v>
       </c>
       <c r="T4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="U4">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="V4">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W4">
-        <v>63.6</v>
+        <v>100</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -804,16 +804,16 @@
         <v>4</v>
       </c>
       <c r="T5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="U5">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="V5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -878,16 +878,16 @@
         <v>5</v>
       </c>
       <c r="T6">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="U6">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="V6">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W6">
-        <v>89.66799999999999</v>
+        <v>95</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>6</v>
       </c>
       <c r="T7">
-        <v>152.96</v>
+        <v>148</v>
       </c>
       <c r="U7">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="V7">
-        <v>50.24</v>
+        <v>41</v>
       </c>
       <c r="W7">
-        <v>84.09599999999996</v>
+        <v>113</v>
       </c>
       <c r="X7">
         <v>1</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -25,6 +25,18 @@
     <t>FBS</t>
   </si>
   <si>
+    <t>CHOL</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>LDL</t>
+  </si>
+  <si>
     <t>CPKMB</t>
   </si>
   <si>
@@ -71,18 +83,6 @@
   </si>
   <si>
     <t>Number of hospitalization days</t>
-  </si>
-  <si>
-    <t>CHOL</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>HDL</t>
-  </si>
-  <si>
-    <t>LDL</t>
   </si>
   <si>
     <t>predict</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,67 +534,67 @@
         <v>110</v>
       </c>
       <c r="D2">
+        <v>173</v>
+      </c>
+      <c r="E2">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>67</v>
+      </c>
+      <c r="G2">
+        <v>91</v>
+      </c>
+      <c r="H2">
         <v>19</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>13.5</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>37</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>126</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>69</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>78</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>173</v>
-      </c>
-      <c r="U2">
-        <v>75</v>
-      </c>
-      <c r="V2">
-        <v>67</v>
-      </c>
-      <c r="W2">
-        <v>91</v>
-      </c>
       <c r="X2">
-        <v>1</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -608,117 +608,117 @@
         <v>100</v>
       </c>
       <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>199</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>119.2</v>
+      </c>
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>12.2</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>30</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>110</v>
-      </c>
-      <c r="J3">
-        <v>70</v>
-      </c>
-      <c r="K3">
-        <v>88</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>6</v>
       </c>
-      <c r="T3">
-        <v>200</v>
-      </c>
-      <c r="U3">
-        <v>199</v>
-      </c>
-      <c r="V3">
-        <v>41</v>
-      </c>
-      <c r="W3">
-        <v>119.2</v>
-      </c>
       <c r="X3">
-        <v>1</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F4">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>63.6</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>13.7</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
         <v>30</v>
       </c>
-      <c r="G4">
-        <v>45</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>130</v>
-      </c>
-      <c r="J4">
-        <v>60</v>
-      </c>
-      <c r="K4">
-        <v>69</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -750,221 +750,73 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="E5">
-        <v>12.2</v>
+        <v>155</v>
       </c>
       <c r="F5">
-        <v>12.6</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>130</v>
+        <v>13.6</v>
       </c>
       <c r="J5">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
+        <v>162</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>66</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>100</v>
-      </c>
-      <c r="U5">
-        <v>50</v>
-      </c>
       <c r="V5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="X5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>13.7</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>142</v>
-      </c>
-      <c r="J6">
-        <v>93</v>
-      </c>
-      <c r="K6">
-        <v>150</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <v>120</v>
-      </c>
-      <c r="U6">
-        <v>130</v>
-      </c>
-      <c r="V6">
-        <v>38</v>
-      </c>
-      <c r="W6">
-        <v>95</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>85</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>13.6</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>162</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>66</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>6</v>
-      </c>
-      <c r="T7">
-        <v>148</v>
-      </c>
-      <c r="U7">
-        <v>135</v>
-      </c>
-      <c r="V7">
-        <v>41</v>
-      </c>
-      <c r="W7">
-        <v>113</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -14,75 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>History of shortness of breath</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>History of heart disease</t>
+  </si>
+  <si>
+    <t>BPs</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>CPKMB</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Number of hospitalization days</t>
+  </si>
+  <si>
+    <t>Hb</t>
+  </si>
+  <si>
+    <t>Chest pain</t>
+  </si>
   <si>
     <t>Sex</t>
   </si>
   <si>
+    <t>Family history of heart disease</t>
+  </si>
+  <si>
+    <t>Trop i</t>
+  </si>
+  <si>
+    <t>Heart rate</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>BPd</t>
+  </si>
+  <si>
     <t>FBS</t>
   </si>
   <si>
+    <t>LDL</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
     <t>CHOL</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>HDL</t>
-  </si>
-  <si>
-    <t>LDL</t>
-  </si>
-  <si>
-    <t>CPKMB</t>
-  </si>
-  <si>
-    <t>Hb</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>PTT</t>
-  </si>
-  <si>
-    <t>Trop i</t>
-  </si>
-  <si>
-    <t>BPs</t>
-  </si>
-  <si>
-    <t>BPd</t>
-  </si>
-  <si>
-    <t>Heart rate</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Chest pain</t>
-  </si>
-  <si>
-    <t>History of shortness of breath</t>
-  </si>
-  <si>
-    <t>History of heart disease</t>
-  </si>
-  <si>
-    <t>Family history of heart disease</t>
-  </si>
-  <si>
-    <t>History of high blood pressure</t>
-  </si>
-  <si>
-    <t>Number of hospitalization days</t>
   </si>
   <si>
     <t>predict</t>
@@ -443,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,304 +516,502 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>13.5</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>78</v>
+      </c>
+      <c r="O2">
+        <v>58</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>69</v>
+      </c>
+      <c r="R2">
+        <v>110</v>
+      </c>
+      <c r="S2">
+        <v>1.76568600232984</v>
+      </c>
+      <c r="T2">
+        <v>2.163545616166184</v>
+      </c>
+      <c r="U2">
+        <v>-0.7081448555613415</v>
+      </c>
+      <c r="V2">
+        <v>-0.1529438225803745</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="K2">
-        <v>37</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>126</v>
-      </c>
-      <c r="N2">
-        <v>69</v>
-      </c>
-      <c r="O2">
-        <v>78</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>199</v>
-      </c>
-      <c r="F3">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>119.2</v>
-      </c>
       <c r="H3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>12.2</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>88</v>
+      </c>
+      <c r="O3">
+        <v>65</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>70</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>1.76568600232984</v>
+      </c>
+      <c r="T3">
+        <v>-0.6503646988572749</v>
+      </c>
+      <c r="U3">
+        <v>-0.6243425019887781</v>
+      </c>
+      <c r="V3">
+        <v>6.53834841531101</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>69</v>
+      </c>
+      <c r="O4">
+        <v>77</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4">
+        <v>70</v>
+      </c>
+      <c r="S4">
+        <v>-0.5663521139548542</v>
+      </c>
+      <c r="T4">
+        <v>-0.5421373790486803</v>
+      </c>
+      <c r="U4">
+        <v>0.213681033736857</v>
+      </c>
+      <c r="V4">
+        <v>-0.1529438225803745</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>12.6</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>12.2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>70</v>
+      </c>
+      <c r="O5">
+        <v>75</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>80</v>
+      </c>
+      <c r="R5">
+        <v>108</v>
+      </c>
+      <c r="S5">
+        <v>1.76568600232984</v>
+      </c>
+      <c r="T5">
+        <v>-0.7585920186658696</v>
+      </c>
+      <c r="U5">
+        <v>1.889728105188127</v>
+      </c>
+      <c r="V5">
+        <v>-0.1529438225803745</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>142</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>13.7</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>150</v>
+      </c>
+      <c r="O6">
+        <v>80</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>93</v>
+      </c>
+      <c r="R6">
+        <v>85</v>
+      </c>
+      <c r="S6">
+        <v>-0.5663521139548542</v>
+      </c>
+      <c r="T6">
+        <v>-0.9750466582830587</v>
+      </c>
+      <c r="U6">
+        <v>-0.6243425019887781</v>
+      </c>
+      <c r="V6">
+        <v>-0.1529438225803745</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>162</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>13.6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>66</v>
+      </c>
+      <c r="O7">
+        <v>67</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>85</v>
+      </c>
+      <c r="S7">
+        <v>-0.5663521139548542</v>
+      </c>
+      <c r="T7">
+        <v>-0.6503646988572749</v>
+      </c>
+      <c r="U7">
+        <v>0.6326928015996746</v>
+      </c>
+      <c r="V7">
+        <v>-0.1529438225803745</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+      <c r="E8">
         <v>30</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>15.2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>74</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>70</v>
+      </c>
+      <c r="R8">
         <v>110</v>
       </c>
-      <c r="N3">
-        <v>70</v>
-      </c>
-      <c r="O3">
-        <v>88</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>6</v>
-      </c>
-      <c r="X3">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>85</v>
-      </c>
-      <c r="D4">
-        <v>120</v>
-      </c>
-      <c r="E4">
-        <v>72</v>
-      </c>
-      <c r="F4">
-        <v>42</v>
-      </c>
-      <c r="G4">
-        <v>63.6</v>
-      </c>
-      <c r="H4">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>13.7</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>142</v>
-      </c>
-      <c r="N4">
-        <v>93</v>
-      </c>
-      <c r="O4">
-        <v>150</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
-      <c r="X4">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>67</v>
-      </c>
-      <c r="C5">
-        <v>85</v>
-      </c>
-      <c r="D5">
-        <v>179</v>
-      </c>
-      <c r="E5">
-        <v>155</v>
-      </c>
-      <c r="F5">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>13.6</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>33</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>162</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5">
-        <v>66</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>6</v>
-      </c>
-      <c r="X5">
-        <v>1.56</v>
+      <c r="S8">
+        <v>1.76568600232984</v>
+      </c>
+      <c r="T8">
+        <v>-1.083273978091653</v>
+      </c>
+      <c r="U8">
+        <v>-0.2053307341259605</v>
+      </c>
+      <c r="V8">
+        <v>-0.1529438225803745</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -16,70 +16,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
     <t>History of shortness of breath</t>
   </si>
   <si>
+    <t>History of heart disease</t>
+  </si>
+  <si>
+    <t>Family history of heart disease</t>
+  </si>
+  <si>
+    <t>Number of hospitalization days</t>
+  </si>
+  <si>
+    <t>FBS</t>
+  </si>
+  <si>
+    <t>CPKMB</t>
+  </si>
+  <si>
+    <t>Hb</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>Trop i</t>
+  </si>
+  <si>
+    <t>BPs</t>
+  </si>
+  <si>
+    <t>BPd</t>
+  </si>
+  <si>
+    <t>Heart rate</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
     <t>Smoke</t>
   </si>
   <si>
-    <t>History of heart disease</t>
-  </si>
-  <si>
-    <t>BPs</t>
-  </si>
-  <si>
-    <t>PTT</t>
-  </si>
-  <si>
-    <t>CPKMB</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>Number of hospitalization days</t>
-  </si>
-  <si>
-    <t>Hb</t>
-  </si>
-  <si>
     <t>Chest pain</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Family history of heart disease</t>
-  </si>
-  <si>
-    <t>Trop i</t>
-  </si>
-  <si>
-    <t>Heart rate</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>BPd</t>
-  </si>
-  <si>
-    <t>FBS</t>
+    <t>CHOL</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>HDL</t>
   </si>
   <si>
     <t>LDL</t>
-  </si>
-  <si>
-    <t>HDL</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>CHOL</t>
   </si>
   <si>
     <t>predict</t>
@@ -522,67 +522,67 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
         <v>19</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2">
         <v>13.5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N2">
+        <v>69</v>
+      </c>
+      <c r="O2">
         <v>78</v>
       </c>
-      <c r="O2">
-        <v>58</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.76568600232984</v>
+        <v>173</v>
       </c>
       <c r="T2">
-        <v>2.163545616166184</v>
+        <v>75</v>
       </c>
       <c r="U2">
-        <v>-0.7081448555613415</v>
+        <v>67</v>
       </c>
       <c r="V2">
-        <v>-0.1529438225803745</v>
+        <v>91</v>
       </c>
       <c r="W2">
         <v>4</v>
@@ -593,67 +593,67 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
         <v>20</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
       </c>
       <c r="I3">
         <v>12.2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N3">
+        <v>70</v>
+      </c>
+      <c r="O3">
         <v>88</v>
       </c>
-      <c r="O3">
-        <v>65</v>
-      </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.76568600232984</v>
+        <v>200</v>
       </c>
       <c r="T3">
-        <v>-0.6503646988572749</v>
+        <v>199</v>
       </c>
       <c r="U3">
-        <v>-0.6243425019887781</v>
+        <v>41</v>
       </c>
       <c r="V3">
-        <v>6.53834841531101</v>
+        <v>119.2</v>
       </c>
       <c r="W3">
         <v>4</v>
@@ -661,73 +661,73 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4">
         <v>15</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
       </c>
       <c r="I4">
         <v>14</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N4">
+        <v>60</v>
+      </c>
+      <c r="O4">
         <v>69</v>
       </c>
-      <c r="O4">
-        <v>77</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-0.5663521139548542</v>
+        <v>120</v>
       </c>
       <c r="T4">
-        <v>-0.5421373790486803</v>
+        <v>72</v>
       </c>
       <c r="U4">
-        <v>0.213681033736857</v>
+        <v>42</v>
       </c>
       <c r="V4">
-        <v>-0.1529438225803745</v>
+        <v>100</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -735,70 +735,70 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>108</v>
+      </c>
+      <c r="H5">
         <v>19</v>
-      </c>
-      <c r="G5">
-        <v>12.6</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
       </c>
       <c r="I5">
         <v>12.2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N5">
+        <v>80</v>
+      </c>
+      <c r="O5">
         <v>70</v>
       </c>
-      <c r="O5">
-        <v>75</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>50</v>
+      </c>
+      <c r="U5">
+        <v>40</v>
+      </c>
+      <c r="V5">
         <v>80</v>
       </c>
-      <c r="R5">
-        <v>108</v>
-      </c>
-      <c r="S5">
-        <v>1.76568600232984</v>
-      </c>
-      <c r="T5">
-        <v>-0.7585920186658696</v>
-      </c>
-      <c r="U5">
-        <v>1.889728105188127</v>
-      </c>
-      <c r="V5">
-        <v>-0.1529438225803745</v>
-      </c>
       <c r="W5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -806,70 +806,70 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>85</v>
+      </c>
+      <c r="H6">
         <v>17</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
       </c>
       <c r="I6">
         <v>13.7</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N6">
+        <v>93</v>
+      </c>
+      <c r="O6">
         <v>150</v>
       </c>
-      <c r="O6">
-        <v>80</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-0.5663521139548542</v>
+        <v>120</v>
       </c>
       <c r="T6">
-        <v>-0.9750466582830587</v>
+        <v>130</v>
       </c>
       <c r="U6">
-        <v>-0.6243425019887781</v>
+        <v>38</v>
       </c>
       <c r="V6">
-        <v>-0.1529438225803745</v>
+        <v>95</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -877,141 +877,141 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>85</v>
+      </c>
+      <c r="H7">
         <v>14</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
       </c>
       <c r="I7">
         <v>13.6</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
         <v>66</v>
       </c>
-      <c r="O7">
-        <v>67</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>-0.5663521139548542</v>
+        <v>148</v>
       </c>
       <c r="T7">
-        <v>-0.6503646988572749</v>
+        <v>135</v>
       </c>
       <c r="U7">
-        <v>0.6326928015996746</v>
+        <v>41</v>
       </c>
       <c r="V7">
-        <v>-0.1529438225803745</v>
+        <v>113</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>110</v>
+      </c>
+      <c r="H8">
         <v>13</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
       </c>
       <c r="I8">
         <v>15.2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="N8">
+        <v>70</v>
+      </c>
+      <c r="O8">
         <v>80</v>
       </c>
-      <c r="O8">
-        <v>74</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1.76568600232984</v>
+        <v>158</v>
       </c>
       <c r="T8">
-        <v>-1.083273978091653</v>
+        <v>130</v>
       </c>
       <c r="U8">
-        <v>-0.2053307341259605</v>
+        <v>37</v>
       </c>
       <c r="V8">
-        <v>-0.1529438225803745</v>
+        <v>42.2</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
